--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>DIA</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>calzone</t>
+  </si>
+  <si>
+    <t>calzone + monster</t>
   </si>
 </sst>
 </file>
@@ -520,6 +523,12 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>DIA</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>calzone + monster</t>
+  </si>
+  <si>
+    <t>comida normal</t>
   </si>
 </sst>
 </file>
@@ -534,6 +537,12 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>DIA</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>comida normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calzone + barra </t>
   </si>
 </sst>
 </file>
@@ -558,6 +561,12 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso02_github\atividade_12_calculo_almoço\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8ECA0-5E5D-45AC-9C54-1D3241F296F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="24300" yWindow="105" windowWidth="15375" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -139,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,11 +209,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -249,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +295,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +347,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,14 +540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -525,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -536,7 +588,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -547,17 +599,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -568,132 +620,132 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso02_github\atividade_12_calculo_almoço\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8ECA0-5E5D-45AC-9C54-1D3241F296F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24300" yWindow="105" windowWidth="15375" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>DIA</t>
   </si>
@@ -140,13 +134,16 @@
   </si>
   <si>
     <t xml:space="preserve">calzone + barra </t>
+  </si>
+  <si>
+    <t>r7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,19 +206,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,27 +284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,24 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,16 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -577,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -588,7 +539,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -599,17 +550,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -620,132 +571,138 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>35</v>
       </c>

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>DIA</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>r7</t>
+  </si>
+  <si>
+    <t>comida e refrigerante</t>
   </si>
 </sst>
 </file>
@@ -586,6 +589,12 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>DIA</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>comida e refrigerante</t>
+  </si>
+  <si>
+    <t>calzone e 4 barras de chocolate promoção (7)</t>
   </si>
 </sst>
 </file>
@@ -600,6 +603,12 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>DIA</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>calzone e 4 barras de chocolate promoção (7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamburgao + batatinha + cookie + coca </t>
+  </si>
+  <si>
+    <t>comida no mendonça e energético 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comida normal </t>
   </si>
 </sst>
 </file>
@@ -614,6 +623,12 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -629,10 +644,22 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>DIA</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">comida normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pizza e guaraná </t>
   </si>
 </sst>
 </file>
@@ -666,83 +669,95 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>

--- a/atividade_12_calculo_almoço/arquivo_teste.xlsx
+++ b/atividade_12_calculo_almoço/arquivo_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>DIA</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">pizza e guaraná </t>
+  </si>
+  <si>
+    <t>pizza</t>
   </si>
 </sst>
 </file>
@@ -691,6 +694,12 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
